--- a/optimize/Axiory/covid/MA50/NIKKEI/M5/matrix_NIKKEI_M5_MA50_2020_1.xlsx
+++ b/optimize/Axiory/covid/MA50/NIKKEI/M5/matrix_NIKKEI_M5_MA50_2020_1.xlsx
@@ -444,31 +444,31 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1386</v>
+        <v>1396</v>
       </c>
       <c r="C2">
-        <v>1722</v>
+        <v>1732</v>
       </c>
       <c r="D2">
-        <v>996</v>
+        <v>1006</v>
       </c>
       <c r="E2">
-        <v>5350</v>
+        <v>5360</v>
       </c>
       <c r="F2">
-        <v>2016</v>
+        <v>2026</v>
       </c>
       <c r="G2">
-        <v>3262</v>
+        <v>3272</v>
       </c>
       <c r="H2">
-        <v>5592</v>
+        <v>5602</v>
       </c>
       <c r="I2">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="J2">
-        <v>1052</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -476,31 +476,31 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>7174</v>
+        <v>7184</v>
       </c>
       <c r="C3">
-        <v>3248</v>
+        <v>3258</v>
       </c>
       <c r="D3">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="E3">
-        <v>2250</v>
+        <v>2260</v>
       </c>
       <c r="F3">
-        <v>1570</v>
+        <v>1580</v>
       </c>
       <c r="G3">
-        <v>-1256</v>
+        <v>-1246</v>
       </c>
       <c r="H3">
-        <v>2726</v>
+        <v>2736</v>
       </c>
       <c r="I3">
-        <v>6674</v>
+        <v>6684</v>
       </c>
       <c r="J3">
-        <v>4874</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -508,31 +508,31 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>7040</v>
+        <v>7050</v>
       </c>
       <c r="C4">
-        <v>1728</v>
+        <v>1738</v>
       </c>
       <c r="D4">
-        <v>1974</v>
+        <v>1984</v>
       </c>
       <c r="E4">
-        <v>1048</v>
+        <v>1058</v>
       </c>
       <c r="F4">
-        <v>-882</v>
+        <v>-872</v>
       </c>
       <c r="G4">
-        <v>-60</v>
+        <v>-50</v>
       </c>
       <c r="H4">
-        <v>3100</v>
+        <v>3110</v>
       </c>
       <c r="I4">
-        <v>6182</v>
+        <v>6192</v>
       </c>
       <c r="J4">
-        <v>9590</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -540,31 +540,31 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>1662</v>
+        <v>1672</v>
       </c>
       <c r="C5">
-        <v>1428</v>
+        <v>1438</v>
       </c>
       <c r="D5">
-        <v>-622</v>
+        <v>-612</v>
       </c>
       <c r="E5">
-        <v>5958</v>
+        <v>5968</v>
       </c>
       <c r="F5">
-        <v>4018</v>
+        <v>4028</v>
       </c>
       <c r="G5">
-        <v>2760</v>
+        <v>2770</v>
       </c>
       <c r="H5">
-        <v>-646</v>
+        <v>-636</v>
       </c>
       <c r="I5">
-        <v>11756</v>
+        <v>11766</v>
       </c>
       <c r="J5">
-        <v>16606</v>
+        <v>16616</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -572,31 +572,31 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>2018</v>
+        <v>2028</v>
       </c>
       <c r="C6">
-        <v>1358</v>
+        <v>1368</v>
       </c>
       <c r="D6">
-        <v>3398</v>
+        <v>3408</v>
       </c>
       <c r="E6">
-        <v>6458</v>
+        <v>6468</v>
       </c>
       <c r="F6">
-        <v>6782</v>
+        <v>6792</v>
       </c>
       <c r="G6">
-        <v>-622</v>
+        <v>-612</v>
       </c>
       <c r="H6">
-        <v>3106</v>
+        <v>3116</v>
       </c>
       <c r="I6">
-        <v>6972</v>
+        <v>6982</v>
       </c>
       <c r="J6">
-        <v>12768</v>
+        <v>12778</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -604,31 +604,31 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>3610</v>
+        <v>3620</v>
       </c>
       <c r="C7">
-        <v>-1198</v>
+        <v>-1188</v>
       </c>
       <c r="D7">
-        <v>3128</v>
+        <v>3138</v>
       </c>
       <c r="E7">
-        <v>6282</v>
+        <v>6292</v>
       </c>
       <c r="F7">
-        <v>6218</v>
+        <v>6228</v>
       </c>
       <c r="G7">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="H7">
-        <v>2292</v>
+        <v>2302</v>
       </c>
       <c r="I7">
-        <v>4686</v>
+        <v>4696</v>
       </c>
       <c r="J7">
-        <v>12106</v>
+        <v>12116</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -636,31 +636,31 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>3010</v>
+        <v>3020</v>
       </c>
       <c r="C8">
-        <v>1252</v>
+        <v>1262</v>
       </c>
       <c r="D8">
-        <v>-956</v>
+        <v>-946</v>
       </c>
       <c r="E8">
-        <v>6170</v>
+        <v>6180</v>
       </c>
       <c r="F8">
-        <v>4434</v>
+        <v>4444</v>
       </c>
       <c r="G8">
-        <v>-534</v>
+        <v>-524</v>
       </c>
       <c r="H8">
-        <v>-3054</v>
+        <v>-3044</v>
       </c>
       <c r="I8">
-        <v>4284</v>
+        <v>4294</v>
       </c>
       <c r="J8">
-        <v>8896</v>
+        <v>8906</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -668,31 +668,31 @@
         <v>40</v>
       </c>
       <c r="B9">
-        <v>4358</v>
+        <v>4368</v>
       </c>
       <c r="C9">
-        <v>-322</v>
+        <v>-312</v>
       </c>
       <c r="D9">
-        <v>1964</v>
+        <v>1974</v>
       </c>
       <c r="E9">
-        <v>7712</v>
+        <v>7722</v>
       </c>
       <c r="F9">
-        <v>5616</v>
+        <v>5626</v>
       </c>
       <c r="G9">
-        <v>1824</v>
+        <v>1834</v>
       </c>
       <c r="H9">
-        <v>-2564</v>
+        <v>-2554</v>
       </c>
       <c r="I9">
-        <v>3032</v>
+        <v>3042</v>
       </c>
       <c r="J9">
-        <v>11022</v>
+        <v>11032</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -700,31 +700,31 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>5014</v>
+        <v>5024</v>
       </c>
       <c r="C10">
-        <v>1226</v>
+        <v>1236</v>
       </c>
       <c r="D10">
-        <v>3626</v>
+        <v>3636</v>
       </c>
       <c r="E10">
-        <v>6462</v>
+        <v>6472</v>
       </c>
       <c r="F10">
-        <v>3256</v>
+        <v>3266</v>
       </c>
       <c r="G10">
-        <v>1152</v>
+        <v>1162</v>
       </c>
       <c r="H10">
-        <v>-236</v>
+        <v>-226</v>
       </c>
       <c r="I10">
-        <v>4662</v>
+        <v>4672</v>
       </c>
       <c r="J10">
-        <v>9776</v>
+        <v>9786</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -732,31 +732,31 @@
         <v>50</v>
       </c>
       <c r="B11">
-        <v>6884</v>
+        <v>6894</v>
       </c>
       <c r="C11">
-        <v>926</v>
+        <v>936</v>
       </c>
       <c r="D11">
-        <v>-296</v>
+        <v>-286</v>
       </c>
       <c r="E11">
-        <v>7694</v>
+        <v>7704</v>
       </c>
       <c r="F11">
-        <v>1528</v>
+        <v>1538</v>
       </c>
       <c r="G11">
-        <v>5530</v>
+        <v>5540</v>
       </c>
       <c r="H11">
-        <v>-1008</v>
+        <v>-998</v>
       </c>
       <c r="I11">
-        <v>2514</v>
+        <v>2524</v>
       </c>
       <c r="J11">
-        <v>3280</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -764,31 +764,31 @@
         <v>55</v>
       </c>
       <c r="B12">
-        <v>5736</v>
+        <v>5746</v>
       </c>
       <c r="C12">
-        <v>-874</v>
+        <v>-864</v>
       </c>
       <c r="D12">
-        <v>-418</v>
+        <v>-408</v>
       </c>
       <c r="E12">
-        <v>3954</v>
+        <v>3964</v>
       </c>
       <c r="F12">
-        <v>-2998</v>
+        <v>-2988</v>
       </c>
       <c r="G12">
-        <v>6824</v>
+        <v>6834</v>
       </c>
       <c r="H12">
-        <v>-3506</v>
+        <v>-3496</v>
       </c>
       <c r="I12">
-        <v>4242</v>
+        <v>4252</v>
       </c>
       <c r="J12">
-        <v>4970</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -796,31 +796,31 @@
         <v>60</v>
       </c>
       <c r="B13">
-        <v>4320</v>
+        <v>4330</v>
       </c>
       <c r="C13">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="D13">
-        <v>-12</v>
+        <v>-2</v>
       </c>
       <c r="E13">
-        <v>4012</v>
+        <v>4022</v>
       </c>
       <c r="F13">
-        <v>2866</v>
+        <v>2876</v>
       </c>
       <c r="G13">
-        <v>8608</v>
+        <v>8618</v>
       </c>
       <c r="H13">
-        <v>-3180</v>
+        <v>-3170</v>
       </c>
       <c r="I13">
-        <v>3120</v>
+        <v>3130</v>
       </c>
       <c r="J13">
-        <v>7600</v>
+        <v>7610</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -828,31 +828,31 @@
         <v>65</v>
       </c>
       <c r="B14">
-        <v>5810</v>
+        <v>5820</v>
       </c>
       <c r="C14">
-        <v>1286</v>
+        <v>1296</v>
       </c>
       <c r="D14">
-        <v>2178</v>
+        <v>2188</v>
       </c>
       <c r="E14">
-        <v>5940</v>
+        <v>5950</v>
       </c>
       <c r="F14">
-        <v>3358</v>
+        <v>3368</v>
       </c>
       <c r="G14">
-        <v>11400</v>
+        <v>11410</v>
       </c>
       <c r="H14">
-        <v>-2810</v>
+        <v>-2800</v>
       </c>
       <c r="I14">
-        <v>4180</v>
+        <v>4190</v>
       </c>
       <c r="J14">
-        <v>8376</v>
+        <v>8386</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -860,31 +860,31 @@
         <v>70</v>
       </c>
       <c r="B15">
-        <v>4790</v>
+        <v>4800</v>
       </c>
       <c r="C15">
-        <v>-628</v>
+        <v>-618</v>
       </c>
       <c r="D15">
-        <v>962</v>
+        <v>972</v>
       </c>
       <c r="E15">
-        <v>5684</v>
+        <v>5694</v>
       </c>
       <c r="F15">
-        <v>9300</v>
+        <v>9310</v>
       </c>
       <c r="G15">
-        <v>12200</v>
+        <v>12210</v>
       </c>
       <c r="H15">
-        <v>-2010</v>
+        <v>-2000</v>
       </c>
       <c r="I15">
-        <v>3406</v>
+        <v>3416</v>
       </c>
       <c r="J15">
-        <v>8846</v>
+        <v>8856</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -892,31 +892,31 @@
         <v>75</v>
       </c>
       <c r="B16">
-        <v>5384</v>
+        <v>5394</v>
       </c>
       <c r="C16">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="D16">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="E16">
-        <v>4638</v>
+        <v>4648</v>
       </c>
       <c r="F16">
-        <v>9628</v>
+        <v>9638</v>
       </c>
       <c r="G16">
-        <v>11086</v>
+        <v>11096</v>
       </c>
       <c r="H16">
-        <v>-1614</v>
+        <v>-1604</v>
       </c>
       <c r="I16">
-        <v>4510</v>
+        <v>4520</v>
       </c>
       <c r="J16">
-        <v>12376</v>
+        <v>12386</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -924,31 +924,31 @@
         <v>80</v>
       </c>
       <c r="B17">
-        <v>5044</v>
+        <v>5054</v>
       </c>
       <c r="C17">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="D17">
-        <v>1922</v>
+        <v>1932</v>
       </c>
       <c r="E17">
-        <v>5762</v>
+        <v>5772</v>
       </c>
       <c r="F17">
-        <v>9132</v>
+        <v>9142</v>
       </c>
       <c r="G17">
-        <v>9704</v>
+        <v>9714</v>
       </c>
       <c r="H17">
-        <v>-3188</v>
+        <v>-3178</v>
       </c>
       <c r="I17">
-        <v>7138</v>
+        <v>7148</v>
       </c>
       <c r="J17">
-        <v>8920</v>
+        <v>8930</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -956,31 +956,31 @@
         <v>85</v>
       </c>
       <c r="B18">
-        <v>6502</v>
+        <v>6512</v>
       </c>
       <c r="C18">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D18">
-        <v>1918</v>
+        <v>1928</v>
       </c>
       <c r="E18">
-        <v>5324</v>
+        <v>5334</v>
       </c>
       <c r="F18">
-        <v>9026</v>
+        <v>9036</v>
       </c>
       <c r="G18">
-        <v>7942</v>
+        <v>7952</v>
       </c>
       <c r="H18">
-        <v>-3030</v>
+        <v>-3020</v>
       </c>
       <c r="I18">
-        <v>6556</v>
+        <v>6566</v>
       </c>
       <c r="J18">
-        <v>9874</v>
+        <v>9884</v>
       </c>
     </row>
   </sheetData>
